--- a/EOS Builder v2.xlsx
+++ b/EOS Builder v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santos-my.sharepoint.com/personal/burmr_santos_com/Documents/Work in progress/Python/0-ResEng/Z-Factors/Variable Zc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed4fc568b21d240e/Z-Factor_Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{F08BA849-98A9-4F57-AD32-CCAEE61C88A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A61337F-C56D-433B-9053-26063518FF3B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{CBE1E3C2-E213-48F1-86FC-AEF516FBC210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA20DEC8-5111-4138-AF93-4609EFD084A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{1D675120-AB69-4B00-B6AF-989798846ECB}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +247,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -398,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,13 +481,13 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,6 +506,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,14 +843,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF57637-8B40-49C8-8329-1BE6F5C4A8BB}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.54296875" bestFit="1" customWidth="1"/>
@@ -904,7 +912,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="5" t="str">
-        <f>IF(L6&gt;=16.043,"",CONCATENATE(" Error: Gas SG is too low for inert mole fractions specified. Needs to be at least ",ROUND((16.043*(1-C6-D6-E6-F6)+(C6*H6+D6*I6+E6*J6+F6*K6))/mwAir,4)," for methane non-inert"))</f>
+        <f>IF(L6&gt;=16.0424,"",CONCATENATE(" Error: Gas SG is too low for inert mole fractions specified. Needs to be at least ",ROUND((16.043*(1-C6-D6-E6-F6)+(C6*H6+D6*I6+E6*J6+F6*K6))/mwAir,4)," for methane non-inert"))</f>
         <v/>
       </c>
       <c r="S3" s="2"/>
@@ -1000,16 +1008,16 @@
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B6" s="14">
-        <v>0.72</v>
-      </c>
-      <c r="C6" s="38">
-        <v>0</v>
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0.05</v>
       </c>
       <c r="D6" s="15">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="15">
         <v>0</v>
@@ -1019,7 +1027,7 @@
       </c>
       <c r="G6" s="16">
         <f>1-SUM(C6:F6)</f>
-        <v>1</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="H6" s="19">
         <v>44.01</v>
@@ -1035,11 +1043,11 @@
       </c>
       <c r="L6" s="16">
         <f xml:space="preserve"> IF(G6&lt;=0,0.65*mwAir,(B6*mwAir - (C6 * H6 + D6 * I6 + E6 * J6 + F6 * K6)) / (1 - C6 - D6 - E6 - F6))</f>
-        <v>20.8584</v>
+        <v>17.148774193548391</v>
       </c>
       <c r="M6" s="21">
         <f>A6+459.67</f>
-        <v>659.67000000000007</v>
+        <v>629.67000000000007</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1061,7 +1069,7 @@
       </c>
       <c r="P7" s="7">
         <f>O5 * hcMW ^ 2 + P5 * hcMW + Q5</f>
-        <v>6.4592969591291096</v>
+        <v>5.7353389886758981</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -1188,7 +1196,7 @@
         <v>16</v>
       </c>
       <c r="J11"/>
-      <c r="K11"/>
+      <c r="K11" s="38"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="O11" s="17" t="s">
@@ -1228,7 +1236,7 @@
         <v>6.9646E-2</v>
       </c>
       <c r="I12" s="29">
-        <v>1.4356100000000001</v>
+        <v>1.4601999999999999</v>
       </c>
       <c r="O12" s="17" t="s">
         <v>42</v>
@@ -1266,7 +1274,7 @@
         <v>7.2437299999999996E-2</v>
       </c>
       <c r="I13" s="29">
-        <v>1.4505999999999999</v>
+        <v>1.4645999999999999</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1299,8 +1307,9 @@
         <v>7.7796100000000007E-2</v>
       </c>
       <c r="I14" s="29">
-        <v>1.3356399999999999</v>
-      </c>
+        <v>1.35422</v>
+      </c>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
@@ -1328,23 +1337,24 @@
         <v>7.7796100000000007E-2</v>
       </c>
       <c r="I15" s="29">
-        <v>0.75787000000000004</v>
-      </c>
+        <v>0.67967</v>
+      </c>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="30">
-        <v>20.8584</v>
+        <v>17.148774193548391</v>
       </c>
       <c r="C16" s="30">
         <f xml:space="preserve"> (P7 + O2)*Q2 / (P7 + O2 + P2)</f>
-        <v>394.12319011685031</v>
+        <v>354.96470928990595</v>
       </c>
       <c r="D16" s="30">
         <f>gasR*C16/P7</f>
-        <v>654.80243810901493</v>
+        <v>664.18587447857703</v>
       </c>
       <c r="E16" s="31">
         <v>-3.8989999999999997E-2</v>
@@ -1359,11 +1369,12 @@
         <v>7.7796100000000007E-2</v>
       </c>
       <c r="I16" s="32">
-        <f>0.0575566259767157 *  hcMW + 0.484309090909092</f>
-        <v>1.684848218181819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <f>0.057511062 *  hcMW + 0.478400158</f>
+        <v>1.4646443738691617</v>
+      </c>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="27"/>
       <c r="C17"/>
@@ -1376,9 +1387,10 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>29</v>
       </c>
@@ -1398,8 +1410,9 @@
         <v>17</v>
       </c>
       <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>0</v>
       </c>
@@ -1420,11 +1433,12 @@
       </c>
       <c r="F19" s="33">
         <f t="array" ref="F19:F22">TRANSPOSE(B23:E23)</f>
-        <v>0.10069049120046739</v>
+        <v>9.7409029207331688E-2</v>
       </c>
       <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>1</v>
       </c>
@@ -1443,11 +1457,12 @@
         <v>0.65</v>
       </c>
       <c r="F20" s="33">
-        <v>9.5445922116484797E-2</v>
+        <v>0.10592298870626567</v>
       </c>
       <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>2</v>
       </c>
@@ -1464,11 +1479,11 @@
         <v>0.369087</v>
       </c>
       <c r="F21" s="33">
-        <v>7.7554040666357571E-2</v>
+        <v>7.2965842338990894E-2</v>
       </c>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>3</v>
       </c>
@@ -1485,46 +1500,46 @@
         <v>0</v>
       </c>
       <c r="F22" s="33">
-        <v>0.27917318513384093</v>
+        <v>0.20557390896998506</v>
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="33">
         <f>P8+P9*hcMW+P10/degR</f>
-        <v>0.10069049120046739</v>
+        <v>9.7409029207331688E-2</v>
       </c>
       <c r="C23" s="33">
         <f>Q8+Q9*hcMW+Q10/degR</f>
-        <v>9.5445922116484797E-2</v>
+        <v>0.10592298870626567</v>
       </c>
       <c r="D23" s="33">
         <f>R8+R9*hcMW+R10/degR</f>
-        <v>7.7554040666357571E-2</v>
+        <v>7.2965842338990894E-2</v>
       </c>
       <c r="E23" s="33">
         <f>S8+S9*hcMW+S10/degR</f>
-        <v>0.27917318513384093</v>
+        <v>0.20557390896998506</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
@@ -1545,8 +1560,8 @@
       </c>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="37">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="36">
         <v>0.1023</v>
       </c>
       <c r="B27" s="34">
@@ -1555,11 +1570,11 @@
       <c r="C27" s="34">
         <v>5.8533000000000002E-2</v>
       </c>
-      <c r="D27" s="36">
-        <v>-3.8818999999999999E-2</v>
-      </c>
-      <c r="E27" s="36">
-        <v>9.1390199999999994E-3</v>
+      <c r="D27" s="45">
+        <v>-3.9283499999999999E-2</v>
+      </c>
+      <c r="E27" s="45">
+        <v>9.2859099999999997E-3</v>
       </c>
       <c r="F27" s="34">
         <v>0.1</v>
